--- a/20250216report_table2.xlsx
+++ b/20250216report_table2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2025_RT_Reports\20250216_RT_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE5B17-7265-4024-85FA-1DB02BAF12CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613441E0-CD00-40A9-96CF-75CF8B881912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50040" yWindow="10635" windowWidth="21600" windowHeight="11453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>22.8 ( 1 )</t>
   </si>
   <si>
-    <t>Tuolomne</t>
-  </si>
-  <si>
     <t>0.5 ( 1 )</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>&gt;10,000'</t>
+  </si>
+  <si>
+    <t>Tuolumne</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1140,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>10</v>
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>108</v>
@@ -1196,7 +1196,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1">
         <v>110</v>
@@ -1232,7 +1232,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1">
         <v>102</v>
@@ -1256,10 +1256,10 @@
         <v>35.1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="5">
         <v>46.4</v>
@@ -1268,7 +1268,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1">
         <v>101</v>
@@ -1292,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L6" s="5">
         <v>46.9</v>
@@ -1306,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6">
         <v>89</v>
@@ -1342,7 +1342,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1">
         <v>102</v>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="5">
         <v>35.1</v>
@@ -1378,7 +1378,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1">
         <v>101</v>
@@ -1402,10 +1402,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="5">
         <v>39.6</v>
@@ -1414,7 +1414,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1">
         <v>98</v>
@@ -1438,10 +1438,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="5">
         <v>48.3</v>
@@ -1450,7 +1450,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1">
         <v>86</v>
@@ -1474,10 +1474,10 @@
         <v>1.7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="5">
         <v>57.3</v>
@@ -1486,7 +1486,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1">
         <v>81</v>
@@ -1510,10 +1510,10 @@
         <v>0.9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" s="5">
         <v>54</v>
@@ -1522,7 +1522,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1">
         <v>89</v>
@@ -1546,10 +1546,10 @@
         <v>1.2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L13" s="5">
         <v>49.7</v>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="6">
         <v>94</v>
@@ -1596,7 +1596,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1">
         <v>99</v>
@@ -1620,10 +1620,10 @@
         <v>41.7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="5">
         <v>36.1</v>
@@ -1632,7 +1632,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1">
         <v>94</v>
@@ -1656,10 +1656,10 @@
         <v>14.2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="5">
         <v>48</v>
@@ -1668,7 +1668,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1">
         <v>98</v>
@@ -1692,10 +1692,10 @@
         <v>6.5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L17" s="5">
         <v>60.7</v>
@@ -1704,7 +1704,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1">
         <v>95</v>
@@ -1728,10 +1728,10 @@
         <v>3.1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L18" s="5">
         <v>59.1</v>
@@ -1740,7 +1740,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1">
         <v>91</v>
@@ -1764,10 +1764,10 @@
         <v>1.4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L19" s="5">
         <v>64.2</v>
@@ -1776,7 +1776,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1">
         <v>109</v>
@@ -1800,10 +1800,10 @@
         <v>1.2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" s="5">
         <v>56.4</v>
@@ -1814,7 +1814,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="6">
         <v>31</v>
@@ -1850,7 +1850,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1">
         <v>82</v>
@@ -1886,7 +1886,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1">
         <v>103</v>
@@ -1922,7 +1922,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1">
         <v>115</v>
@@ -1946,10 +1946,10 @@
         <v>19.399999999999999</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L24" s="5">
         <v>24.7</v>
@@ -1958,7 +1958,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1">
         <v>105</v>
@@ -1982,10 +1982,10 @@
         <v>1.9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L25" s="5">
         <v>33.1</v>
@@ -1996,7 +1996,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2020,10 +2020,10 @@
         <v>155.9</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7">
         <v>7.9</v>
@@ -2032,7 +2032,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -2056,10 +2056,10 @@
         <v>63.1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" s="5">
         <v>16.8</v>
@@ -2068,7 +2068,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1">
         <v>83</v>
@@ -2092,10 +2092,10 @@
         <v>15.6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" s="5">
         <v>28.4</v>
@@ -2104,7 +2104,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="1">
         <v>83</v>
@@ -2128,10 +2128,10 @@
         <v>4.3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L29" s="5">
         <v>39.9</v>
@@ -2140,7 +2140,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1">
         <v>85</v>
@@ -2164,10 +2164,10 @@
         <v>0.6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" s="5">
         <v>53.7</v>
@@ -2178,7 +2178,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="6">
         <v>38</v>
@@ -2214,7 +2214,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1">
         <v>61</v>
@@ -2250,7 +2250,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1">
         <v>81</v>
@@ -2274,7 +2274,7 @@
         <v>122.5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>37</v>
@@ -2286,7 +2286,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>83</v>
@@ -2310,10 +2310,10 @@
         <v>4.8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L34" s="5">
         <v>27.9</v>
@@ -2324,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="6">
         <v>26</v>
@@ -2348,10 +2348,10 @@
         <v>190.8</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L35" s="7">
         <v>13.1</v>
@@ -2360,7 +2360,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1">
         <v>75</v>
@@ -2396,7 +2396,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1">
         <v>85</v>
@@ -2432,7 +2432,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1">
         <v>86</v>
@@ -2456,10 +2456,10 @@
         <v>5.3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="5">
         <v>46.1</v>
@@ -2470,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6">
         <v>14</v>
@@ -2506,7 +2506,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1">
         <v>62</v>
@@ -2542,7 +2542,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1">
         <v>82</v>
@@ -2578,7 +2578,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1">
         <v>82</v>
@@ -2614,7 +2614,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="1">
         <v>78</v>
@@ -2638,10 +2638,10 @@
         <v>7.4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="5">
         <v>28.1</v>
@@ -2652,7 +2652,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>60.5</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44" s="7">
         <v>3.5</v>
@@ -2688,7 +2688,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1">
         <v>27</v>
@@ -2712,10 +2712,10 @@
         <v>23.7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L45" s="5">
         <v>8.1</v>
@@ -2724,7 +2724,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="1">
         <v>72</v>
@@ -2748,10 +2748,10 @@
         <v>7.6</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L46" s="5">
         <v>16.2</v>
@@ -2762,7 +2762,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
@@ -2786,10 +2786,10 @@
         <v>80.7</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L47" s="7">
         <v>1.8</v>
@@ -2798,7 +2798,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1">
         <v>27</v>
@@ -2834,7 +2834,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1">
         <v>74</v>
@@ -2858,10 +2858,10 @@
         <v>86.2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L49" s="5">
         <v>20.7</v>
@@ -2870,7 +2870,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1">
         <v>81</v>
@@ -2930,10 +2930,10 @@
         <v>7.5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L51" s="5">
         <v>25.2</v>
@@ -2944,7 +2944,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>105.2</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L52" s="7">
         <v>1.6</v>
@@ -2980,7 +2980,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1">
         <v>28</v>
@@ -3004,10 +3004,10 @@
         <v>129.19999999999999</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L53" s="5">
         <v>6.9</v>
@@ -3016,7 +3016,7 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1">
         <v>65</v>
@@ -3052,7 +3052,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1">
         <v>78</v>
@@ -3088,7 +3088,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1">
         <v>79</v>
@@ -3124,7 +3124,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1">
         <v>76</v>
@@ -3148,10 +3148,10 @@
         <v>12.2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L57" s="5">
         <v>19.899999999999999</v>
@@ -3160,7 +3160,7 @@
     <row r="58" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15"/>
       <c r="B58" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3">
         <v>69</v>
@@ -3184,10 +3184,10 @@
         <v>0.4</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L58" s="9">
         <v>12.5</v>
@@ -3260,10 +3260,10 @@
         <v>8</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J62" s="19" t="s">
         <v>10</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="14" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="6">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>166.9</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L63" s="7">
         <v>1.9</v>
@@ -3316,7 +3316,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
       <c r="B64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" s="1">
         <v>15</v>
@@ -3340,10 +3340,10 @@
         <v>140.6</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="L64" s="5">
         <v>6.3</v>
@@ -3352,7 +3352,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1">
         <v>61</v>
@@ -3376,10 +3376,10 @@
         <v>148.6</v>
       </c>
       <c r="J65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="L65" s="5">
         <v>15.9</v>
@@ -3388,7 +3388,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1">
         <v>73</v>
@@ -3412,10 +3412,10 @@
         <v>166.4</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="L66" s="5">
         <v>22.9</v>
@@ -3424,7 +3424,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1">
         <v>75</v>
@@ -3448,10 +3448,10 @@
         <v>174.9</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="L67" s="5">
         <v>23.7</v>
@@ -3460,7 +3460,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1">
         <v>75</v>
@@ -3484,10 +3484,10 @@
         <v>86.3</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L68" s="5">
         <v>20</v>
@@ -3496,7 +3496,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -3520,10 +3520,10 @@
         <v>23.8</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L69" s="5">
         <v>10.8</v>
@@ -3532,7 +3532,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="13"/>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" s="1">
         <v>59</v>
@@ -3556,10 +3556,10 @@
         <v>2.4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L70" s="5">
         <v>6.6</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" s="6">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>69.7</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L71" s="7">
         <v>1.4</v>
@@ -3606,7 +3606,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="13"/>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
@@ -3630,10 +3630,10 @@
         <v>78.3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L72" s="5">
         <v>5</v>
@@ -3642,7 +3642,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="13"/>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="1">
         <v>48</v>
@@ -3666,10 +3666,10 @@
         <v>131.9</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L73" s="5">
         <v>13.6</v>
@@ -3678,7 +3678,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="13"/>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" s="1">
         <v>64</v>
@@ -3702,10 +3702,10 @@
         <v>122.8</v>
       </c>
       <c r="J74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="L74" s="5">
         <v>22.1</v>
@@ -3714,7 +3714,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="13"/>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1">
         <v>71</v>
@@ -3738,10 +3738,10 @@
         <v>84.1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L75" s="5">
         <v>22</v>
@@ -3750,7 +3750,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="13"/>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1">
         <v>71</v>
@@ -3774,10 +3774,10 @@
         <v>39.700000000000003</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L76" s="5">
         <v>18</v>
@@ -3786,7 +3786,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="13"/>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1">
         <v>69</v>
@@ -3810,10 +3810,10 @@
         <v>11.1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L77" s="5">
         <v>10.7</v>
@@ -3822,7 +3822,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="13"/>
       <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="1">
         <v>65</v>
@@ -3846,10 +3846,10 @@
         <v>1.4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L78" s="5">
         <v>8.6</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="6">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>133.5</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L79" s="7">
         <v>1.5</v>
@@ -3896,7 +3896,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="13"/>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1">
         <v>19</v>
@@ -3920,10 +3920,10 @@
         <v>175.6</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="L80" s="5">
         <v>5.3</v>
@@ -3932,7 +3932,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="13"/>
       <c r="B81" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="1">
         <v>48</v>
@@ -3956,10 +3956,10 @@
         <v>208.7</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="L81" s="5">
         <v>11.5</v>
@@ -3968,7 +3968,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="13"/>
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1">
         <v>53</v>
@@ -3992,10 +3992,10 @@
         <v>194.2</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L82" s="5">
         <v>19.2</v>
@@ -4004,7 +4004,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="13"/>
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1">
         <v>62</v>
@@ -4028,10 +4028,10 @@
         <v>200.8</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="L83" s="5">
         <v>20.5</v>
@@ -4040,7 +4040,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="13"/>
       <c r="B84" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="1">
         <v>69</v>
@@ -4064,10 +4064,10 @@
         <v>155.9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L84" s="5">
         <v>16.3</v>
@@ -4076,7 +4076,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="13"/>
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1">
         <v>64</v>
@@ -4100,10 +4100,10 @@
         <v>112.5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L85" s="5">
         <v>12</v>
@@ -4112,7 +4112,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="13"/>
       <c r="B86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1">
         <v>61</v>
@@ -4136,10 +4136,10 @@
         <v>26.1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L86" s="5">
         <v>8.6999999999999993</v>
@@ -4148,7 +4148,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="1">
         <v>52</v>
@@ -4172,10 +4172,10 @@
         <v>1.4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L87" s="5">
         <v>7</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
@@ -4210,10 +4210,10 @@
         <v>95.3</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L88" s="7">
         <v>1.2</v>
@@ -4222,7 +4222,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -4246,10 +4246,10 @@
         <v>127.5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L89" s="5">
         <v>3.3</v>
@@ -4258,7 +4258,7 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="13"/>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="1">
         <v>20</v>
@@ -4282,10 +4282,10 @@
         <v>168.1</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="L90" s="5">
         <v>8.6</v>
@@ -4294,7 +4294,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="13"/>
       <c r="B91" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
         <v>41</v>
@@ -4318,7 +4318,7 @@
         <v>210.1</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>37</v>
@@ -4330,7 +4330,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="13"/>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1">
         <v>57</v>
@@ -4354,10 +4354,10 @@
         <v>216.8</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="L92" s="5">
         <v>18.7</v>
@@ -4366,7 +4366,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="13"/>
       <c r="B93" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="1">
         <v>63</v>
@@ -4390,10 +4390,10 @@
         <v>195.4</v>
       </c>
       <c r="J93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="L93" s="5">
         <v>18.8</v>
@@ -4402,7 +4402,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="13"/>
       <c r="B94" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="1">
         <v>61</v>
@@ -4426,10 +4426,10 @@
         <v>147.4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L94" s="5">
         <v>15.4</v>
@@ -4438,7 +4438,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="13"/>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="1">
         <v>56</v>
@@ -4462,10 +4462,10 @@
         <v>44.1</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L95" s="5">
         <v>12.2</v>
@@ -4474,7 +4474,7 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="13"/>
       <c r="B96" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="1">
         <v>48</v>
@@ -4498,10 +4498,10 @@
         <v>2.8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L96" s="5">
         <v>9.8000000000000007</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C97" s="6">
         <v>0</v>
@@ -4536,10 +4536,10 @@
         <v>55.5</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L97" s="7">
         <v>0.8</v>
@@ -4548,7 +4548,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="13"/>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -4572,10 +4572,10 @@
         <v>59.5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L98" s="5">
         <v>2.5</v>
@@ -4584,7 +4584,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="13"/>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" s="1">
         <v>9</v>
@@ -4608,10 +4608,10 @@
         <v>60.1</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L99" s="5">
         <v>7.3</v>
@@ -4620,7 +4620,7 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="13"/>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1">
         <v>31</v>
@@ -4644,10 +4644,10 @@
         <v>56.8</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L100" s="5">
         <v>12.8</v>
@@ -4656,7 +4656,7 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="13"/>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1">
         <v>52</v>
@@ -4680,10 +4680,10 @@
         <v>43.4</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L101" s="5">
         <v>19.399999999999999</v>
@@ -4692,7 +4692,7 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="13"/>
       <c r="B102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" s="1">
         <v>63</v>
@@ -4716,10 +4716,10 @@
         <v>29.6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L102" s="5">
         <v>22</v>
@@ -4728,7 +4728,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="1">
         <v>58</v>
@@ -4752,10 +4752,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L103" s="5">
         <v>19.7</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="6">
         <v>0</v>
@@ -4790,10 +4790,10 @@
         <v>51.6</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L104" s="7">
         <v>0.4</v>
@@ -4802,7 +4802,7 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="13"/>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -4826,10 +4826,10 @@
         <v>40</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L105" s="5">
         <v>1.9</v>
@@ -4838,7 +4838,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="13"/>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1">
         <v>11</v>
@@ -4862,10 +4862,10 @@
         <v>26.8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L106" s="5">
         <v>5.4</v>
@@ -4874,7 +4874,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="13"/>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" s="1">
         <v>28</v>
@@ -4898,10 +4898,10 @@
         <v>15.2</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L107" s="5">
         <v>9</v>
@@ -4910,7 +4910,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="13"/>
       <c r="B108" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="1">
         <v>48</v>
@@ -4934,10 +4934,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L108" s="5">
         <v>14.4</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109" s="6">
         <v>0</v>
@@ -4972,10 +4972,10 @@
         <v>246.2</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L109" s="7">
         <v>0.5</v>
@@ -4984,7 +4984,7 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="13"/>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>341.5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L110" s="5">
         <v>1.6</v>
@@ -5020,7 +5020,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="13"/>
       <c r="B111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="1">
         <v>4</v>
@@ -5044,10 +5044,10 @@
         <v>326.60000000000002</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="L111" s="5">
         <v>4</v>
@@ -5056,7 +5056,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="13"/>
       <c r="B112" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" s="1">
         <v>24</v>
@@ -5080,10 +5080,10 @@
         <v>314.7</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L112" s="5">
         <v>6.6</v>
@@ -5092,7 +5092,7 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="13"/>
       <c r="B113" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1">
         <v>43</v>
@@ -5116,7 +5116,7 @@
         <v>189.2</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>49</v>
@@ -5128,7 +5128,7 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="13"/>
       <c r="B114" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="1">
         <v>55</v>
@@ -5152,10 +5152,10 @@
         <v>129.19999999999999</v>
       </c>
       <c r="J114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="L114" s="5">
         <v>14.3</v>
@@ -5164,7 +5164,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="13"/>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="1">
         <v>59</v>
@@ -5188,10 +5188,10 @@
         <v>91</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="L115" s="5">
         <v>15.7</v>
@@ -5200,7 +5200,7 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="13"/>
       <c r="B116" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="1">
         <v>56</v>
@@ -5224,10 +5224,10 @@
         <v>37.6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L116" s="5">
         <v>12.6</v>
@@ -5236,7 +5236,7 @@
     <row r="117" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="15"/>
       <c r="B117" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117" s="3">
         <v>47</v>
@@ -5260,10 +5260,10 @@
         <v>5.9</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L117" s="9">
         <v>8.8000000000000007</v>
@@ -5331,10 +5331,10 @@
         <v>8</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J120" s="19" t="s">
         <v>10</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" s="6">
         <v>29</v>
@@ -5375,10 +5375,10 @@
         <v>58.7</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L121" s="7">
         <v>9.4</v>
@@ -5387,7 +5387,7 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="13"/>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" s="1">
         <v>48</v>
@@ -5411,10 +5411,10 @@
         <v>203.2</v>
       </c>
       <c r="J122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="L122" s="5">
         <v>11.7</v>
@@ -5423,7 +5423,7 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="13"/>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C123" s="1">
         <v>70</v>
@@ -5447,10 +5447,10 @@
         <v>111.7</v>
       </c>
       <c r="J123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="L123" s="5">
         <v>22.7</v>
@@ -5459,7 +5459,7 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="13"/>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124" s="1">
         <v>76</v>
@@ -5483,10 +5483,10 @@
         <v>30.5</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L124" s="5">
         <v>31</v>
@@ -5495,7 +5495,7 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="13"/>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" s="1">
         <v>75</v>
@@ -5519,10 +5519,10 @@
         <v>7.4</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L125" s="5">
         <v>25.3</v>
@@ -5531,7 +5531,7 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="13"/>
       <c r="B126" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" s="1">
         <v>77</v>
@@ -5555,10 +5555,10 @@
         <v>0.5</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L126" s="5">
         <v>23.6</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127" s="6">
         <v>29</v>
@@ -5593,10 +5593,10 @@
         <v>113.6</v>
       </c>
       <c r="J127" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="K127" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="L127" s="7">
         <v>6.6</v>
@@ -5605,7 +5605,7 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="13"/>
       <c r="B128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C128" s="1">
         <v>59</v>
@@ -5629,10 +5629,10 @@
         <v>105.3</v>
       </c>
       <c r="J128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="L128" s="5">
         <v>17.100000000000001</v>
@@ -5641,7 +5641,7 @@
     <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="13"/>
       <c r="B129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" s="1">
         <v>74</v>
@@ -5665,10 +5665,10 @@
         <v>70.599999999999994</v>
       </c>
       <c r="J129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="L129" s="5">
         <v>20.7</v>
@@ -5677,7 +5677,7 @@
     <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="13"/>
       <c r="B130" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" s="1">
         <v>77</v>
@@ -5701,10 +5701,10 @@
         <v>16.5</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L130" s="5">
         <v>20.7</v>
@@ -5713,7 +5713,7 @@
     <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="13"/>
       <c r="B131" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="1">
         <v>68</v>
@@ -5737,10 +5737,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L131" s="5">
         <v>15.3</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132" s="6">
         <v>0</v>
@@ -5775,10 +5775,10 @@
         <v>0.3</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L132" s="7">
         <v>6.3</v>
@@ -5787,7 +5787,7 @@
     <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="13"/>
       <c r="B133" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C133" s="1">
         <v>11</v>
@@ -5811,10 +5811,10 @@
         <v>1.9</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L133" s="5">
         <v>7.1</v>
@@ -5823,7 +5823,7 @@
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="13"/>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C134" s="1">
         <v>70</v>
@@ -5847,10 +5847,10 @@
         <v>27.5</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L134" s="5">
         <v>15.9</v>
@@ -5859,7 +5859,7 @@
     <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="13"/>
       <c r="B135" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C135" s="1">
         <v>78</v>
@@ -5883,10 +5883,10 @@
         <v>27.3</v>
       </c>
       <c r="J135" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="L135" s="5">
         <v>17</v>
@@ -5895,7 +5895,7 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="13"/>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136" s="1">
         <v>79</v>
@@ -5919,10 +5919,10 @@
         <v>6.9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L136" s="5">
         <v>17.7</v>
@@ -5931,7 +5931,7 @@
     <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="13"/>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" s="1">
         <v>63</v>
@@ -5955,10 +5955,10 @@
         <v>0.3</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L137" s="5">
         <v>16.399999999999999</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138" s="6">
         <v>4</v>
@@ -5993,10 +5993,10 @@
         <v>32.6</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L138" s="7">
         <v>1.5</v>
@@ -6005,7 +6005,7 @@
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="13"/>
       <c r="B139" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139" s="1">
         <v>22</v>
@@ -6029,10 +6029,10 @@
         <v>79.3</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L139" s="5">
         <v>3.8</v>
@@ -6041,7 +6041,7 @@
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="13"/>
       <c r="B140" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C140" s="1">
         <v>64</v>
@@ -6065,10 +6065,10 @@
         <v>100.2</v>
       </c>
       <c r="J140" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K140" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="L140" s="5">
         <v>9.1999999999999993</v>
@@ -6077,7 +6077,7 @@
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="13"/>
       <c r="B141" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C141" s="1">
         <v>75</v>
@@ -6101,10 +6101,10 @@
         <v>97.3</v>
       </c>
       <c r="J141" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K141" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="L141" s="5">
         <v>16.5</v>
@@ -6113,7 +6113,7 @@
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="13"/>
       <c r="B142" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" s="1">
         <v>74</v>
@@ -6137,10 +6137,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L142" s="5">
         <v>19.899999999999999</v>
@@ -6149,7 +6149,7 @@
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="13"/>
       <c r="B143" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C143" s="1">
         <v>72</v>
@@ -6173,10 +6173,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L143" s="5">
         <v>17.100000000000001</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="6">
         <v>41</v>
@@ -6211,10 +6211,10 @@
         <v>7.3</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L144" s="7">
         <v>6.2</v>
@@ -6223,7 +6223,7 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="13"/>
       <c r="B145" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" s="1">
         <v>65</v>
@@ -6247,10 +6247,10 @@
         <v>38.6</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L145" s="5">
         <v>7.5</v>
@@ -6259,7 +6259,7 @@
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="13"/>
       <c r="B146" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" s="1">
         <v>74</v>
@@ -6283,10 +6283,10 @@
         <v>46.1</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L146" s="5">
         <v>16.100000000000001</v>
@@ -6295,7 +6295,7 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="13"/>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="1">
         <v>77</v>
@@ -6319,10 +6319,10 @@
         <v>60.7</v>
       </c>
       <c r="J147" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K147" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="L147" s="5">
         <v>22.8</v>
@@ -6331,7 +6331,7 @@
     <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="13"/>
       <c r="B148" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" s="1">
         <v>76</v>
@@ -6355,10 +6355,10 @@
         <v>24.9</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L148" s="5">
         <v>21.1</v>
@@ -6367,7 +6367,7 @@
     <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="13"/>
       <c r="B149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" s="1">
         <v>64</v>
@@ -6391,10 +6391,10 @@
         <v>1.9</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L149" s="5">
         <v>15.2</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="6">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>57</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L150" s="7">
         <v>3.2</v>
@@ -6441,7 +6441,7 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="13"/>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="1">
         <v>35</v>
@@ -6465,10 +6465,10 @@
         <v>110.2</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L151" s="5">
         <v>4.7</v>
@@ -6477,7 +6477,7 @@
     <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="13"/>
       <c r="B152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C152" s="1">
         <v>66</v>
@@ -6501,10 +6501,10 @@
         <v>88.1</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L152" s="5">
         <v>7.7</v>
@@ -6513,7 +6513,7 @@
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="13"/>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="1">
         <v>77</v>
@@ -6537,10 +6537,10 @@
         <v>53.7</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L153" s="5">
         <v>14.7</v>
@@ -6549,7 +6549,7 @@
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="13"/>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="1">
         <v>76</v>
@@ -6573,10 +6573,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L154" s="5">
         <v>16.3</v>
@@ -6585,7 +6585,7 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="13"/>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="1">
         <v>75</v>
@@ -6609,10 +6609,10 @@
         <v>7.3</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L155" s="5">
         <v>11.5</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C156" s="6">
         <v>0</v>
@@ -6647,10 +6647,10 @@
         <v>298.2</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L156" s="7">
         <v>1.3</v>
@@ -6659,7 +6659,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="13"/>
       <c r="B157" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" s="1">
         <v>10</v>
@@ -6683,10 +6683,10 @@
         <v>389.9</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L157" s="5">
         <v>2.6</v>
@@ -6695,7 +6695,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="13"/>
       <c r="B158" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158" s="1">
         <v>38</v>
@@ -6719,10 +6719,10 @@
         <v>178.7</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L158" s="5">
         <v>4.9000000000000004</v>
@@ -6731,7 +6731,7 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="13"/>
       <c r="B159" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" s="1">
         <v>61</v>
@@ -6755,10 +6755,10 @@
         <v>63.5</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L159" s="5">
         <v>10.8</v>
@@ -6767,7 +6767,7 @@
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="13"/>
       <c r="B160" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="1">
         <v>72</v>
@@ -6791,10 +6791,10 @@
         <v>46.8</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L160" s="5">
         <v>15.4</v>
@@ -6803,7 +6803,7 @@
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="13"/>
       <c r="B161" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="1">
         <v>73</v>
@@ -6827,10 +6827,10 @@
         <v>23.6</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L161" s="5">
         <v>10.6</v>
@@ -6839,7 +6839,7 @@
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="13"/>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="1">
         <v>62</v>
@@ -6863,10 +6863,10 @@
         <v>4.2</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L162" s="5">
         <v>6.3</v>
@@ -6874,10 +6874,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C163" s="6">
         <v>0</v>
@@ -6901,10 +6901,10 @@
         <v>61.6</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L163" s="7">
         <v>2.2000000000000002</v>
@@ -6913,7 +6913,7 @@
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="13"/>
       <c r="B164" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" s="1">
         <v>32</v>
@@ -6937,10 +6937,10 @@
         <v>143.5</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L164" s="5">
         <v>4.7</v>
@@ -6949,7 +6949,7 @@
     <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="13"/>
       <c r="B165" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" s="1">
         <v>49</v>
@@ -6973,10 +6973,10 @@
         <v>75</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L165" s="5">
         <v>9.9</v>
@@ -6985,7 +6985,7 @@
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="13"/>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C166" s="1">
         <v>60</v>
@@ -7009,10 +7009,10 @@
         <v>43.9</v>
       </c>
       <c r="J166" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K166" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="L166" s="5">
         <v>12.8</v>
@@ -7021,7 +7021,7 @@
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="13"/>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C167" s="1">
         <v>66</v>
@@ -7045,10 +7045,10 @@
         <v>32.1</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L167" s="5">
         <v>11.4</v>
@@ -7057,7 +7057,7 @@
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="13"/>
       <c r="B168" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C168" s="1">
         <v>70</v>
@@ -7081,10 +7081,10 @@
         <v>15.5</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L168" s="5">
         <v>7.8</v>
@@ -7093,7 +7093,7 @@
     <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="13"/>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C169" s="1">
         <v>66</v>
@@ -7117,10 +7117,10 @@
         <v>2.9</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L169" s="5">
         <v>5.3</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C170" s="6">
         <v>0</v>
@@ -7155,10 +7155,10 @@
         <v>421.9</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L170" s="7">
         <v>0.2</v>
@@ -7167,7 +7167,7 @@
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="13"/>
       <c r="B171" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -7191,10 +7191,10 @@
         <v>342.5</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L171" s="5">
         <v>1</v>
@@ -7203,7 +7203,7 @@
     <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="13"/>
       <c r="B172" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -7227,10 +7227,10 @@
         <v>314.8</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L172" s="5">
         <v>2</v>
@@ -7239,7 +7239,7 @@
     <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="13"/>
       <c r="B173" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C173" s="1">
         <v>8</v>
@@ -7263,10 +7263,10 @@
         <v>178.7</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L173" s="5">
         <v>3.5</v>
@@ -7275,7 +7275,7 @@
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="13"/>
       <c r="B174" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C174" s="1">
         <v>27</v>
@@ -7299,10 +7299,10 @@
         <v>147.80000000000001</v>
       </c>
       <c r="J174" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K174" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="L174" s="5">
         <v>5.9</v>
@@ -7311,7 +7311,7 @@
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="13"/>
       <c r="B175" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C175" s="1">
         <v>43</v>
@@ -7335,7 +7335,7 @@
         <v>163.5</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>60</v>
@@ -7347,7 +7347,7 @@
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="13"/>
       <c r="B176" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C176" s="1">
         <v>54</v>
@@ -7371,10 +7371,10 @@
         <v>131.9</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L176" s="5">
         <v>8.9</v>
@@ -7383,7 +7383,7 @@
     <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="13"/>
       <c r="B177" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C177" s="1">
         <v>58</v>
@@ -7407,10 +7407,10 @@
         <v>62.1</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L177" s="5">
         <v>7.2</v>
@@ -7419,7 +7419,7 @@
     <row r="178" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A178" s="15"/>
       <c r="B178" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C178" s="3">
         <v>53</v>
@@ -7443,10 +7443,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L178" s="9">
         <v>5.4</v>
@@ -7454,22 +7454,22 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
